--- a/biology/Zoologie/Parc_national_de_Berbak/Parc_national_de_Berbak.xlsx
+++ b/biology/Zoologie/Parc_national_de_Berbak/Parc_national_de_Berbak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de Berbak est un parc national d'Indonésie situé sur le littoral oriental du centre de l'île de Sumatra, dans la province de Jambi.
-Il est protégé par la convention de Ramsar sur la protection des zones humides depuis 1992[1] et fait partie avec le parc national de Sembilang de la réserve de biosphère Berbak-Sembilang, reconnue par l'Unesco en 2018[2].
+Il est protégé par la convention de Ramsar sur la protection des zones humides depuis 1992 et fait partie avec le parc national de Sembilang de la réserve de biosphère Berbak-Sembilang, reconnue par l'Unesco en 2018.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1935 par le gouvernement colonial des Indes néerlandaises, le parc a été officiellement décrété en 1992. Toutefois, sa superficie a été réduite de 2 447 à 1 716 km2.
 La plus grande partie de la zone est inondée 9 mois de l'année. La canopée y atteint 40 mètres.
@@ -545,7 +559,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelque 300 espèces d'oiseaux vivent dans le parc, parmi lesquelles le canard à ailes blanches (Cairina scutulata), des Alcedinidae, ainsi que 9 espèces de Bucerotidae. Des oiseaux migrateurs s'y arrêtent durant leur voyage de Sibérie vers l'Australie et retour, d'octobre à mars.
 Le parc abrite deux espèces de crocodiles : le crocodile marin (Crocodylus porosus) et le faux-gavial de Malaisie (Tomistoma schegelii), ainsi que différentes espèces de tortues. 
@@ -579,9 +595,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il abrite plus de 150 espèces d'arbres, dont 13 Pandanaceae et quelque 27 espèces d‘Arecaceae[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il abrite plus de 150 espèces d'arbres, dont 13 Pandanaceae et quelque 27 espèces d‘Arecaceae.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) « Berbak », sur Ramsar Sites Information Service (consulté le 26 février 2015)
